--- a/mysite/hello1.xlsx
+++ b/mysite/hello1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>darryl.fenner@arcanite-ndt.com</t>
   </si>
@@ -127,526 +127,532 @@
     <t>mfc_98@hotmail.com</t>
   </si>
   <si>
+    <t>mwgumb@bwxt.com</t>
+  </si>
+  <si>
+    <t>justin.knutsen@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>gford@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>lebarrozo@gmail.com</t>
+  </si>
+  <si>
+    <t>janalizadeh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nathan.Schuler@cnrl.com</t>
+  </si>
+  <si>
+    <t>elaflamme@nucleom.ca</t>
+  </si>
+  <si>
+    <t>naldenir.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>dalsaunders@gmail.com</t>
+  </si>
+  <si>
+    <t>natanoel04@hotmail.com</t>
+  </si>
+  <si>
+    <t>marco.venne@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.borchert@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>ideraldo.tiburcio@sbmoffshore.com</t>
+  </si>
+  <si>
+    <t>james.nimijohn@enbridge.com</t>
+  </si>
+  <si>
+    <t>Alex.Arrau@cnrl.com</t>
+  </si>
+  <si>
+    <t>Mandy.Nelson@cnrl.com</t>
+  </si>
+  <si>
+    <t>lucioinspetordm2@gmail.com</t>
+  </si>
+  <si>
+    <t>johnyboyaz@gmail.com</t>
+  </si>
+  <si>
+    <t>diego.gomes@me.com</t>
+  </si>
+  <si>
+    <t>robertopintocq@gmail.com</t>
+  </si>
+  <si>
+    <t>Tylor.Arguin@wav.ca</t>
+  </si>
+  <si>
+    <t>Mike.Cook@sbdinc.com</t>
+  </si>
+  <si>
+    <t>Ryan.Faubert@enbridge.com</t>
+  </si>
+  <si>
+    <t>Udaya.Sundar@cnrl.com</t>
+  </si>
+  <si>
+    <t>matthew.prowse@acuren.com</t>
+  </si>
+  <si>
+    <t>homayoun.javadi@tescan.ca</t>
+  </si>
+  <si>
+    <t>David-Tompkins@hotmail.com</t>
+  </si>
+  <si>
+    <t>brian.millejours@opg.com</t>
+  </si>
+  <si>
+    <t>Mojtaba.ghaderi60@gmail.com</t>
+  </si>
+  <si>
+    <t>noelson.amaral@gmail.com</t>
+  </si>
+  <si>
+    <t>timnelson155@msn.com</t>
+  </si>
+  <si>
+    <t>Michael.Brault@irisndt.com</t>
+  </si>
+  <si>
+    <t>VPopov@nucleom.ca</t>
+  </si>
+  <si>
+    <t>ssinger@acuren.com</t>
+  </si>
+  <si>
+    <t>belchiorvirgilio@gmail.com</t>
+  </si>
+  <si>
+    <t>jodland@tiltinspection.com</t>
+  </si>
+  <si>
+    <t>renatokow@hotmail.com</t>
+  </si>
+  <si>
+    <t>marko.alekszity@gmail.com</t>
+  </si>
+  <si>
+    <t>weston.ellis@opg.com</t>
+  </si>
+  <si>
+    <t>john.reardon@opg.com</t>
+  </si>
+  <si>
+    <t>Brian.Purves@wav.ca</t>
+  </si>
+  <si>
+    <t>kelly.norman@wav.ca</t>
+  </si>
+  <si>
+    <t>mohammad.koochak@gmail.com</t>
+  </si>
+  <si>
+    <t>doubrumm@gmail.com</t>
+  </si>
+  <si>
+    <t>rajasengodan55@gmail.com</t>
+  </si>
+  <si>
+    <t>rgarcia@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>saramella@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.spencer@applusrtd.com</t>
+  </si>
+  <si>
+    <t>rsb407@gmail.com</t>
+  </si>
+  <si>
+    <t>Philippe.Cyr@acuren.com</t>
+  </si>
+  <si>
+    <t>dana.martin@opg.com</t>
+  </si>
+  <si>
+    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
+  </si>
+  <si>
+    <t>amirghabraee@yahoo.com</t>
+  </si>
+  <si>
+    <t>Jnsmith@bwxt.com</t>
+  </si>
+  <si>
+    <t>wcpamer@bwxt.com</t>
+  </si>
+  <si>
+    <t>practitionerinspection@gmail.com</t>
+  </si>
+  <si>
+    <t>Craig.McMeeken@wav.ca</t>
+  </si>
+  <si>
+    <t>Ben.Ren@cnrl.com</t>
+  </si>
+  <si>
+    <t>Muhammad.Akbar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Hisham.Madi@cnrl.com</t>
+  </si>
+  <si>
+    <t>jtreacy@its-ndt.com</t>
+  </si>
+  <si>
+    <t>dinghaifeng8888@hotmail.com</t>
+  </si>
+  <si>
+    <t>garret.elkins@gmail.com</t>
+  </si>
+  <si>
+    <t>insptonelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>nunomcmarques@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jaeger.Lonsdale@sbdinc.com</t>
+  </si>
+  <si>
+    <t>levikitt@live.ca</t>
+  </si>
+  <si>
+    <t>Bradley.Kuntz@enbridge.com</t>
+  </si>
+  <si>
+    <t>Jay.Brooks@enbridge.com</t>
+  </si>
+  <si>
+    <t>doug.desruisseaux@enbridge.com</t>
+  </si>
+  <si>
+    <t>logan.campbell@enbridge.com</t>
+  </si>
+  <si>
+    <t>darryl.czajkowski@opg.com</t>
+  </si>
+  <si>
+    <t>j.lawson@opg.com</t>
+  </si>
+  <si>
+    <t>derrick.watson@brucepower.com</t>
+  </si>
+  <si>
+    <t>chabouni.djr@gmail.com</t>
+  </si>
+  <si>
+    <t>owen.nicol@enbridge.com</t>
+  </si>
+  <si>
+    <t>dale.berezan@applusrtd.com</t>
+  </si>
+  <si>
+    <t>jian-zhao@hotmail.com</t>
+  </si>
+  <si>
+    <t>scott.robinson@enbridge.com</t>
+  </si>
+  <si>
+    <t>b_ilkuf@hotmail.com</t>
+  </si>
+  <si>
+    <t>douglamarre@sympatico.ca</t>
+  </si>
+  <si>
+    <t>r.hoffmann@rae.com</t>
+  </si>
+  <si>
+    <t>Waleed.Rafiq@cnrl.com</t>
+  </si>
+  <si>
+    <t>Perry.Lawless@cnrl.com</t>
+  </si>
+  <si>
+    <t>Stephen.Orser@cnrl.com</t>
+  </si>
+  <si>
+    <t>Qaiser.Butt@cnrl.com</t>
+  </si>
+  <si>
+    <t>Zawar.Muhammad@cnrl.com</t>
+  </si>
+  <si>
+    <t>Ayo.Salaudeen@cnrl.com</t>
+  </si>
+  <si>
+    <t>jonathan.Uhlman@cnrl.com</t>
+  </si>
+  <si>
+    <t>Anand.Palani@cnrl.com</t>
+  </si>
+  <si>
+    <t>scott.bangs@brucepower.com</t>
+  </si>
+  <si>
+    <t>tyler.rickard@enbridge.com</t>
+  </si>
+  <si>
+    <t>omerzamir3@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.norman@opg.com</t>
+  </si>
+  <si>
+    <t>shawn.hanrahan@opg.com</t>
+  </si>
+  <si>
+    <t>hossein.taheri8067@gmail.com</t>
+  </si>
+  <si>
+    <t>matt.fritz@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>awallace441@gmail.com</t>
+  </si>
+  <si>
+    <t>joel.djordjevic@arcanite-ndt.com</t>
+  </si>
+  <si>
+    <t>cchartier@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>humbraganca@hotmail.com</t>
+  </si>
+  <si>
+    <t>flokinn_coq@hotmail.com</t>
+  </si>
+  <si>
+    <t>jmay@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>marcus.accon@gmail.com</t>
+  </si>
+  <si>
+    <t>ssusac@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>rackitndt@outlook.com</t>
+  </si>
+  <si>
+    <t>nic.shoebridge@enbridge.com</t>
+  </si>
+  <si>
+    <t>jsaint@metalogicinspection.com</t>
+  </si>
+  <si>
+    <t>blake.macpherson@enbridge.com</t>
+  </si>
+  <si>
+    <t>eng.ndt@yahoo.com</t>
+  </si>
+  <si>
+    <t>h.herrera@rae.com</t>
+  </si>
+  <si>
+    <t>Hassan.Sattar@cnrl.com</t>
+  </si>
+  <si>
+    <t>Marat.Kireev@cnrl.com</t>
+  </si>
+  <si>
+    <t>Alexie.Broddy@cnrl.com</t>
+  </si>
+  <si>
+    <t>nima_vakil@yahoo.com</t>
+  </si>
+  <si>
+    <t>nrweston@anodendt.ca</t>
+  </si>
+  <si>
+    <t>barry.giasson@opg.com</t>
+  </si>
+  <si>
+    <t>michelle.fry@opg.com</t>
+  </si>
+  <si>
+    <t>devon.algera@opg.com</t>
+  </si>
+  <si>
+    <t>briancable40@gmail.com</t>
+  </si>
+  <si>
+    <t>jeehmorais89@gmail.com</t>
+  </si>
+  <si>
+    <t>colbyritzut@gmail.com</t>
+  </si>
+  <si>
+    <t>Dean.Ikert@enbridge.com</t>
+  </si>
+  <si>
+    <t>gabrielvfortes@gmail.com</t>
+  </si>
+  <si>
+    <t>nikhilsatheesan@outlook.com</t>
+  </si>
+  <si>
+    <t>jesse.rempel@enbridge.com</t>
+  </si>
+  <si>
+    <t>karandeepgill760@gmail.com</t>
+  </si>
+  <si>
+    <t>ewhite@ndtgroup.ca</t>
+  </si>
+  <si>
+    <t>collin.coffey@mantech.com</t>
+  </si>
+  <si>
+    <t>Curtis.behnke@enbridge.com</t>
+  </si>
+  <si>
+    <t>marcel@strauhs.com.br</t>
+  </si>
+  <si>
+    <t>ryan.ziefflie@enbridge.com</t>
+  </si>
+  <si>
+    <t>carl.gerbrandt@wav.ca</t>
+  </si>
+  <si>
+    <t>andersonreisssilva@gmail.com</t>
+  </si>
+  <si>
+    <t>gabriell_008@hotmail.com</t>
+  </si>
+  <si>
+    <t>nima.vakilotojjar@gmail.com</t>
+  </si>
+  <si>
+    <t>vinicius.bogos@gmail.com</t>
+  </si>
+  <si>
+    <t>paul.burton@opg.com</t>
+  </si>
+  <si>
+    <t>limogesjon@gmail.com</t>
+  </si>
+  <si>
+    <t>fernando.grigolato@outlook.com</t>
+  </si>
+  <si>
+    <t>nickolas.lau@brucepower.com</t>
+  </si>
+  <si>
+    <t>taylor.gardiner@applusrtd.com</t>
+  </si>
+  <si>
+    <t>srsouzapinto@gmail.com</t>
+  </si>
+  <si>
+    <t>qualidade.daniel@gmail.com</t>
+  </si>
+  <si>
+    <t>ferrerinsp@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro_augusto27@hotmail.com</t>
+  </si>
+  <si>
+    <t>nathaliasg.fr@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jarratt.Bilodeau@StuartOlson.com</t>
+  </si>
+  <si>
+    <t>thiago_claro@hotmail.com</t>
+  </si>
+  <si>
+    <t>julionunescosta@gmail.com</t>
+  </si>
+  <si>
+    <t>chaboki.ali@gmail.com</t>
+  </si>
+  <si>
+    <t>a.beckman94@hotmail.com</t>
+  </si>
+  <si>
+    <t>lacianelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>wesleyhweber@gmail.com</t>
+  </si>
+  <si>
+    <t>eng.douglaswilson@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>sa-jailson@hotmail.com</t>
+  </si>
+  <si>
+    <t>diegom.silva@outlook.com</t>
+  </si>
+  <si>
+    <t>jrhilson16@gmail.com</t>
+  </si>
+  <si>
+    <t>fqlara@gmail.com</t>
+  </si>
+  <si>
+    <t>mendoncalon@gmail.com</t>
+  </si>
+  <si>
+    <t>oko.oono@gmail.com</t>
+  </si>
+  <si>
+    <t>soheyltahan@gmail.com</t>
+  </si>
+  <si>
+    <t>gmalmeida@isgbrasil.com.br</t>
+  </si>
+  <si>
+    <t>yingsong.wu@applusrtd.com</t>
+  </si>
+  <si>
+    <t>vanderlei_nogueira@hotmail.com</t>
+  </si>
+  <si>
+    <t>felipe@orionsic.com.br</t>
+  </si>
+  <si>
+    <t>eric.scott999@gmail.com</t>
+  </si>
+  <si>
+    <t>brunoinsp@hotmail.com</t>
+  </si>
+  <si>
+    <t>jackbloy@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigostohler@gmail.com</t>
+  </si>
+  <si>
+    <t>Vptamy@gmail.com</t>
+  </si>
+  <si>
+    <t>blessed.agunu@totalenergies.com</t>
+  </si>
+  <si>
+    <t>felipecadiente@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.dimensional@gmail.com</t>
+  </si>
+  <si>
     <t>hamed.faghihi@opg.com</t>
   </si>
   <si>
-    <t>mwgumb@bwxt.com</t>
-  </si>
-  <si>
-    <t>justin.knutsen@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>gford@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>lebarrozo@gmail.com</t>
-  </si>
-  <si>
-    <t>janalizadeh@gmail.com</t>
-  </si>
-  <si>
-    <t>Nathan.Schuler@cnrl.com</t>
-  </si>
-  <si>
-    <t>elaflamme@nucleom.ca</t>
-  </si>
-  <si>
-    <t>naldenir.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>dalsaunders@gmail.com</t>
-  </si>
-  <si>
-    <t>natanoel04@hotmail.com</t>
-  </si>
-  <si>
-    <t>marco.venne@gmail.com</t>
-  </si>
-  <si>
-    <t>marcelo.borchert@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>ideraldo.tiburcio@sbmoffshore.com</t>
-  </si>
-  <si>
-    <t>james.nimijohn@enbridge.com</t>
-  </si>
-  <si>
-    <t>Alex.Arrau@cnrl.com</t>
-  </si>
-  <si>
-    <t>Mandy.Nelson@cnrl.com</t>
-  </si>
-  <si>
-    <t>lucioinspetordm2@gmail.com</t>
-  </si>
-  <si>
-    <t>johnyboyaz@gmail.com</t>
-  </si>
-  <si>
-    <t>diego.gomes@me.com</t>
-  </si>
-  <si>
-    <t>robertopintocq@gmail.com</t>
-  </si>
-  <si>
-    <t>Tylor.Arguin@wav.ca</t>
-  </si>
-  <si>
-    <t>Mike.Cook@sbdinc.com</t>
-  </si>
-  <si>
-    <t>Ryan.Faubert@enbridge.com</t>
-  </si>
-  <si>
-    <t>Udaya.Sundar@cnrl.com</t>
-  </si>
-  <si>
-    <t>matthew.prowse@acuren.com</t>
-  </si>
-  <si>
-    <t>homayoun.javadi@tescan.ca</t>
-  </si>
-  <si>
-    <t>David-Tompkins@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mojtaba.ghaderi60@gmail.com</t>
-  </si>
-  <si>
-    <t>noelson.amaral@gmail.com</t>
-  </si>
-  <si>
-    <t>timnelson155@msn.com</t>
-  </si>
-  <si>
-    <t>Michael.Brault@irisndt.com</t>
-  </si>
-  <si>
-    <t>VPopov@nucleom.ca</t>
-  </si>
-  <si>
-    <t>ssinger@acuren.com</t>
-  </si>
-  <si>
-    <t>belchiorvirgilio@gmail.com</t>
-  </si>
-  <si>
-    <t>jodland@tiltinspection.com</t>
-  </si>
-  <si>
-    <t>renatokow@hotmail.com</t>
-  </si>
-  <si>
-    <t>marko.alekszity@gmail.com</t>
-  </si>
-  <si>
-    <t>weston.ellis@opg.com</t>
-  </si>
-  <si>
-    <t>john.reardon@opg.com</t>
-  </si>
-  <si>
-    <t>Brian.Purves@wav.ca</t>
-  </si>
-  <si>
-    <t>kelly.norman@wav.ca</t>
-  </si>
-  <si>
-    <t>mohammad.koochak@gmail.com</t>
-  </si>
-  <si>
-    <t>doubrumm@gmail.com</t>
-  </si>
-  <si>
-    <t>rajasengodan55@gmail.com</t>
-  </si>
-  <si>
-    <t>rgarcia@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>saramella@gmail.com</t>
-  </si>
-  <si>
-    <t>paul.spencer@applusrtd.com</t>
-  </si>
-  <si>
-    <t>rsb407@gmail.com</t>
-  </si>
-  <si>
-    <t>Philippe.Cyr@acuren.com</t>
-  </si>
-  <si>
-    <t>dana.martin@opg.com</t>
-  </si>
-  <si>
-    <t>Sheryl.vanderfluit@mistrasgroup.com</t>
-  </si>
-  <si>
-    <t>amirghabraee@yahoo.com</t>
-  </si>
-  <si>
-    <t>Jnsmith@bwxt.com</t>
-  </si>
-  <si>
-    <t>wcpamer@bwxt.com</t>
-  </si>
-  <si>
-    <t>practitionerinspection@gmail.com</t>
-  </si>
-  <si>
-    <t>Craig.McMeeken@wav.ca</t>
-  </si>
-  <si>
-    <t>Ben.Ren@cnrl.com</t>
-  </si>
-  <si>
-    <t>Muhammad.Akbar@cnrl.com</t>
-  </si>
-  <si>
-    <t>Hisham.Madi@cnrl.com</t>
-  </si>
-  <si>
-    <t>jtreacy@its-ndt.com</t>
-  </si>
-  <si>
-    <t>dinghaifeng8888@hotmail.com</t>
-  </si>
-  <si>
-    <t>garret.elkins@gmail.com</t>
-  </si>
-  <si>
-    <t>insptonelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>nunomcmarques@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jaeger.Lonsdale@sbdinc.com</t>
-  </si>
-  <si>
-    <t>levikitt@live.ca</t>
-  </si>
-  <si>
-    <t>Bradley.Kuntz@enbridge.com</t>
-  </si>
-  <si>
-    <t>Jay.Brooks@enbridge.com</t>
-  </si>
-  <si>
-    <t>doug.desruisseaux@enbridge.com</t>
-  </si>
-  <si>
-    <t>logan.campbell@enbridge.com</t>
-  </si>
-  <si>
-    <t>darryl.czajkowski@opg.com</t>
-  </si>
-  <si>
-    <t>j.lawson@opg.com</t>
-  </si>
-  <si>
-    <t>derrick.watson@brucepower.com</t>
-  </si>
-  <si>
-    <t>chabouni.djr@gmail.com</t>
-  </si>
-  <si>
-    <t>owen.nicol@enbridge.com</t>
-  </si>
-  <si>
-    <t>dale.berezan@applusrtd.com</t>
-  </si>
-  <si>
-    <t>jian-zhao@hotmail.com</t>
-  </si>
-  <si>
-    <t>scott.robinson@enbridge.com</t>
-  </si>
-  <si>
-    <t>b_ilkuf@hotmail.com</t>
-  </si>
-  <si>
-    <t>douglamarre@sympatico.ca</t>
-  </si>
-  <si>
-    <t>r.hoffmann@rae.com</t>
-  </si>
-  <si>
-    <t>Waleed.Rafiq@cnrl.com</t>
-  </si>
-  <si>
-    <t>Perry.Lawless@cnrl.com</t>
-  </si>
-  <si>
-    <t>Stephen.Orser@cnrl.com</t>
-  </si>
-  <si>
-    <t>Qaiser.Butt@cnrl.com</t>
-  </si>
-  <si>
-    <t>Zawar.Muhammad@cnrl.com</t>
-  </si>
-  <si>
-    <t>Ayo.Salaudeen@cnrl.com</t>
-  </si>
-  <si>
-    <t>jonathan.Uhlman@cnrl.com</t>
-  </si>
-  <si>
-    <t>Anand.Palani@cnrl.com</t>
-  </si>
-  <si>
-    <t>scott.bangs@brucepower.com</t>
-  </si>
-  <si>
-    <t>tyler.rickard@enbridge.com</t>
-  </si>
-  <si>
-    <t>omerzamir3@gmail.com</t>
-  </si>
-  <si>
-    <t>daniel.norman@opg.com</t>
-  </si>
-  <si>
-    <t>shawn.hanrahan@opg.com</t>
-  </si>
-  <si>
-    <t>hossein.taheri8067@gmail.com</t>
-  </si>
-  <si>
-    <t>matt.fritz@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>awallace441@gmail.com</t>
-  </si>
-  <si>
-    <t>joel.djordjevic@arcanite-ndt.com</t>
-  </si>
-  <si>
-    <t>cchartier@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>humbraganca@hotmail.com</t>
-  </si>
-  <si>
-    <t>flokinn_coq@hotmail.com</t>
-  </si>
-  <si>
-    <t>jmay@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>marcus.accon@gmail.com</t>
-  </si>
-  <si>
-    <t>ssusac@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>rackitndt@outlook.com</t>
-  </si>
-  <si>
-    <t>nic.shoebridge@enbridge.com</t>
-  </si>
-  <si>
-    <t>jsaint@metalogicinspection.com</t>
-  </si>
-  <si>
-    <t>blake.macpherson@enbridge.com</t>
-  </si>
-  <si>
-    <t>eng.ndt@yahoo.com</t>
-  </si>
-  <si>
-    <t>h.herrera@rae.com</t>
-  </si>
-  <si>
-    <t>Hassan.Sattar@cnrl.com</t>
-  </si>
-  <si>
-    <t>Marat.Kireev@cnrl.com</t>
-  </si>
-  <si>
-    <t>Alexie.Broddy@cnrl.com</t>
-  </si>
-  <si>
-    <t>nima_vakil@yahoo.com</t>
-  </si>
-  <si>
-    <t>nrweston@anodendt.ca</t>
-  </si>
-  <si>
-    <t>barry.giasson@opg.com</t>
-  </si>
-  <si>
-    <t>michelle.fry@opg.com</t>
-  </si>
-  <si>
-    <t>devon.algera@opg.com</t>
-  </si>
-  <si>
-    <t>briancable40@gmail.com</t>
-  </si>
-  <si>
-    <t>jeehmorais89@gmail.com</t>
-  </si>
-  <si>
-    <t>colbyritzut@gmail.com</t>
-  </si>
-  <si>
-    <t>Dean.Ikert@enbridge.com</t>
-  </si>
-  <si>
-    <t>gabrielvfortes@gmail.com</t>
-  </si>
-  <si>
-    <t>nikhilsatheesan@outlook.com</t>
-  </si>
-  <si>
-    <t>jesse.rempel@enbridge.com</t>
-  </si>
-  <si>
-    <t>karandeepgill760@gmail.com</t>
-  </si>
-  <si>
-    <t>ewhite@ndtgroup.ca</t>
-  </si>
-  <si>
-    <t>collin.coffey@mantech.com</t>
-  </si>
-  <si>
-    <t>Curtis.behnke@enbridge.com</t>
-  </si>
-  <si>
-    <t>marcel@strauhs.com.br</t>
-  </si>
-  <si>
-    <t>ryan.ziefflie@enbridge.com</t>
-  </si>
-  <si>
-    <t>carl.gerbrandt@wav.ca</t>
-  </si>
-  <si>
-    <t>andersonreisssilva@gmail.com</t>
-  </si>
-  <si>
-    <t>gabriell_008@hotmail.com</t>
-  </si>
-  <si>
-    <t>nima.vakilotojjar@gmail.com</t>
-  </si>
-  <si>
-    <t>vinicius.bogos@gmail.com</t>
-  </si>
-  <si>
-    <t>paul.burton@opg.com</t>
-  </si>
-  <si>
-    <t>limogesjon@gmail.com</t>
-  </si>
-  <si>
-    <t>fernando.grigolato@outlook.com</t>
-  </si>
-  <si>
-    <t>nickolas.lau@brucepower.com</t>
-  </si>
-  <si>
-    <t>taylor.gardiner@applusrtd.com</t>
-  </si>
-  <si>
-    <t>srsouzapinto@gmail.com</t>
-  </si>
-  <si>
-    <t>qualidade.daniel@gmail.com</t>
-  </si>
-  <si>
-    <t>ferrerinsp@gmail.com</t>
-  </si>
-  <si>
-    <t>pedro_augusto27@hotmail.com</t>
-  </si>
-  <si>
-    <t>nathaliasg.fr@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jarratt.Bilodeau@StuartOlson.com</t>
-  </si>
-  <si>
-    <t>thiago_claro@hotmail.com</t>
-  </si>
-  <si>
-    <t>julionunescosta@gmail.com</t>
-  </si>
-  <si>
-    <t>chaboki.ali@gmail.com</t>
-  </si>
-  <si>
-    <t>a.beckman94@hotmail.com</t>
-  </si>
-  <si>
-    <t>lacianelli@hotmail.com</t>
-  </si>
-  <si>
-    <t>wesleyhweber@gmail.com</t>
-  </si>
-  <si>
-    <t>eng.douglaswilson@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>sa-jailson@hotmail.com</t>
-  </si>
-  <si>
-    <t>diegom.silva@outlook.com</t>
-  </si>
-  <si>
-    <t>jrhilson16@gmail.com</t>
-  </si>
-  <si>
-    <t>fqlara@gmail.com</t>
-  </si>
-  <si>
-    <t>mendoncalon@gmail.com</t>
-  </si>
-  <si>
-    <t>oko.oono@gmail.com</t>
-  </si>
-  <si>
-    <t>soheyltahan@gmail.com</t>
-  </si>
-  <si>
-    <t>gmalmeida@isgbrasil.com.br</t>
-  </si>
-  <si>
-    <t>yingsong.wu@applusrtd.com</t>
-  </si>
-  <si>
-    <t>vanderlei_nogueira@hotmail.com</t>
-  </si>
-  <si>
-    <t>felipe@orionsic.com.br</t>
-  </si>
-  <si>
-    <t>eric.scott999@gmail.com</t>
-  </si>
-  <si>
-    <t>brunoinsp@hotmail.com</t>
-  </si>
-  <si>
-    <t>jackbloy@gmail.com</t>
-  </si>
-  <si>
-    <t>rodrigostohler@gmail.com</t>
-  </si>
-  <si>
-    <t>Vptamy@gmail.com</t>
-  </si>
-  <si>
-    <t>blessed.agunu@totalenergies.com</t>
-  </si>
-  <si>
-    <t>felipecadiente@gmail.com</t>
-  </si>
-  <si>
-    <t>marcelo.dimensional@gmail.com</t>
+    <t>ben.Leblanc@ultratest.ca</t>
   </si>
   <si>
     <t>kejqual@telusplanet.net</t>
@@ -673,6 +679,9 @@
     <t>robertgwif@yahoo.com.br</t>
   </si>
   <si>
+    <t>shaun.mcassey@ultratest.ca</t>
+  </si>
+  <si>
     <t>alexandre_borchert@hotmail.com</t>
   </si>
   <si>
@@ -802,19 +811,40 @@
     <t>brendanmatthews@mail.com</t>
   </si>
   <si>
+    <t>nima_khatib@yahoo.com</t>
+  </si>
+  <si>
     <t>luisfelipesel@gmail.com</t>
   </si>
   <si>
+    <t>TMorrison@summitinspection.ca</t>
+  </si>
+  <si>
+    <t>jeff.gebhart@evrazna.com</t>
+  </si>
+  <si>
     <t>ebx.consultoria@gmail.com</t>
   </si>
   <si>
+    <t>curtis.glen@opg.com</t>
+  </si>
+  <si>
     <t>tysonosmond@msn.com</t>
   </si>
   <si>
+    <t>kellen.daly@opg.com</t>
+  </si>
+  <si>
     <t>patrick.lannigan@brucepower.com</t>
   </si>
   <si>
     <t>gina.mc@jgmservices.ca</t>
+  </si>
+  <si>
+    <t>nicolo.mattina@opg.com</t>
+  </si>
+  <si>
+    <t>anguxlam@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A267"/>
+  <dimension ref="A1:A277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2487,6 +2517,56 @@
         <v>266</v>
       </c>
     </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mysite/hello1.xlsx
+++ b/mysite/hello1.xlsx
@@ -721,6 +721,9 @@
     <t>luis.marka@inphaseintegrity.com</t>
   </si>
   <si>
+    <t>psinats@elanderinspection.ca</t>
+  </si>
+  <si>
     <t>marco.proenca@yahoo.com.br</t>
   </si>
   <si>
@@ -773,9 +776,6 @@
   </si>
   <si>
     <t>FBLeclerc@nucleom.ca</t>
-  </si>
-  <si>
-    <t>psinats@elanderinspection.ca</t>
   </si>
   <si>
     <t>sardinhagustavo@hotmail.com</t>
